--- a/swings/2021-11-22/BINANCE_SPOT_BTC_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_BTC_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>57963.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>58347.77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>58048.92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -819,6 +835,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>58264.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +890,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +945,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>57600</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +1000,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,6 +1055,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>58180.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1110,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1137,6 +1165,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>57914.93</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1191,6 +1222,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>58108.9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1277,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1295,6 +1330,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1349,6 +1385,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>57305</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1401,6 +1440,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1495,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>57813.17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1509,6 +1552,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>57602</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1563,6 +1609,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>57803.23</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1615,6 +1664,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1669,6 +1719,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>56959.07</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1723,6 +1776,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>57728.17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1775,6 +1831,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1829,6 +1886,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>57200.69</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1883,6 +1943,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>57527.76</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1935,6 +1998,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1987,6 +2051,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2039,6 +2104,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2091,6 +2157,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2143,6 +2210,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2197,6 +2265,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>56766.58</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2249,6 +2320,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2301,6 +2373,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2353,6 +2426,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2405,6 +2479,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2459,6 +2534,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>57473.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2511,6 +2589,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2565,6 +2644,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>57190.4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2619,6 +2701,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>57388.12</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2673,6 +2758,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>57055</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2725,6 +2813,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2779,6 +2868,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>57780</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2831,6 +2923,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2885,6 +2978,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>57420.65</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2939,6 +3035,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>57576.65</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2991,6 +3090,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3043,6 +3143,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3097,6 +3198,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>57236.52</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3149,6 +3253,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3201,6 +3306,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3255,6 +3361,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>57577.43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3307,6 +3416,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3361,6 +3471,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>57300.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3413,6 +3526,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3467,6 +3581,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>57830.99</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3519,6 +3636,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3573,6 +3691,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>57326.96</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3625,6 +3746,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3679,6 +3801,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>57456.46</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3733,6 +3858,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>56952.35</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3787,6 +3915,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>57396.65</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3839,6 +3970,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3891,6 +4023,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3943,6 +4076,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3997,6 +4131,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>57105.01</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4049,6 +4186,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4103,6 +4241,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>57540.66</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4155,6 +4296,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4209,6 +4351,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>57302.28</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4263,6 +4408,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>57518.27</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4315,6 +4463,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4367,6 +4516,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4421,6 +4571,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>57050</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4473,6 +4626,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4527,6 +4681,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>58063.84</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4579,6 +4736,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4631,6 +4789,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4683,6 +4842,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4735,6 +4895,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4789,6 +4950,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>56580.01</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4841,6 +5005,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4895,6 +5060,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>59151.56</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4949,6 +5117,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>58661.64</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5003,6 +5174,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>59023.98</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5055,6 +5229,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5109,6 +5284,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>58130</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5163,6 +5341,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>58398.98</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5215,6 +5396,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5267,6 +5449,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5321,6 +5504,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>58050</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5373,6 +5559,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5427,6 +5614,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>58392.66</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5481,6 +5671,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>57937.03</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5533,6 +5726,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5585,6 +5779,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5639,6 +5834,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>58250</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5693,6 +5891,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>57620</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5747,6 +5948,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>58085.68</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5799,6 +6003,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5851,6 +6056,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5903,6 +6109,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5957,6 +6164,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>57500</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6011,6 +6221,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>57650.69</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6063,6 +6276,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6115,6 +6329,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6169,6 +6384,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>57288.48</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6223,6 +6441,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>57473.29</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6275,6 +6496,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6327,6 +6549,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6379,6 +6602,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6431,6 +6655,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6483,6 +6708,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6535,6 +6761,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6589,6 +6816,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>56270.52</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6643,6 +6873,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>56990.17</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6695,6 +6928,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6747,6 +6981,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6799,6 +7034,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6853,6 +7089,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>55800</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6905,6 +7144,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6959,6 +7199,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>56354.65</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7013,6 +7256,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>55949.51</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7067,6 +7313,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>56209.4</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7119,6 +7368,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7171,6 +7421,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7225,6 +7476,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>55610</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7277,6 +7531,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7329,6 +7584,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7383,6 +7639,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>56430.66</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7437,6 +7696,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>55893.42</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7489,6 +7751,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7543,6 +7806,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>56498.12</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7595,6 +7861,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7649,6 +7916,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>56080</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7701,6 +7971,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7753,6 +8024,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7807,6 +8079,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>56711.96</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7861,6 +8136,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>56360.03</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7915,6 +8193,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O141" t="n">
+        <v>56524.74</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7967,6 +8248,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8019,6 +8301,7 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8073,6 +8356,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>56218.06</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8126,6 +8412,9 @@
         <is>
           <t>nan</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>56438.59</v>
       </c>
     </row>
   </sheetData>
